--- a/pythonProject5/telefon_urunleri.xlsx
+++ b/pythonProject5/telefon_urunleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,6 +1319,138 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>50</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>50</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>50</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>50</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pythonProject5/telefon_urunleri.xlsx
+++ b/pythonProject5/telefon_urunleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,61 +436,66 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>warranty</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ram</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>storage</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>fiveGsupport</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>numberOfcameras</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>fastCharging</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -501,231 +506,61 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>50</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>50</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/pythonProject5/telefon_urunleri.xlsx
+++ b/pythonProject5/telefon_urunleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,10 +524,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A3" t="n">
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -558,6 +556,46 @@
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>eren</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eren çalban</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>e</t>
         </is>
